--- a/data/trans_orig/P14A11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C220E9-0D1A-4DCF-824E-540ABBA6CF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63DF4E0B-5F53-4F6F-98B5-DC392D63B043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA115D0E-3097-4558-9B03-BD185C65FDBE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A0D497B-F15F-49E3-899F-8D82A989E2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="120">
   <si>
     <t>Población que recibe medicación o terapia por infarto de miocardio en 2012 (Tasa respuesta: 1,54%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>95,13%</t>
   </si>
   <si>
-    <t>84,78%</t>
+    <t>84,55%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -90,7 +90,7 @@
     <t>97,02%</t>
   </si>
   <si>
-    <t>90,67%</t>
+    <t>91,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -102,7 +102,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,22%</t>
+    <t>15,45%</t>
   </si>
   <si>
     <t>0%</t>
@@ -114,7 +114,7 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>9,33%</t>
+    <t>8,93%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -123,7 +123,7 @@
     <t>90,53%</t>
   </si>
   <si>
-    <t>71,35%</t>
+    <t>70,81%</t>
   </si>
   <si>
     <t>73,19%</t>
@@ -135,16 +135,16 @@
     <t>85,75%</t>
   </si>
   <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>9,47%</t>
   </si>
   <si>
-    <t>28,65%</t>
+    <t>29,19%</t>
   </si>
   <si>
     <t>26,81%</t>
@@ -156,10 +156,10 @@
     <t>14,25%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -186,19 +186,22 @@
     <t>94,0%</t>
   </si>
   <si>
-    <t>98,53%</t>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>76,2%</t>
+    <t>81,31%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>88,05%</t>
+    <t>87,39%</t>
   </si>
   <si>
     <t>97,9%</t>
@@ -207,13 +210,16 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>23,8%</t>
+    <t>18,69%</t>
   </si>
   <si>
     <t>6,03%</t>
@@ -222,7 +228,7 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>11,95%</t>
+    <t>12,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -234,19 +240,19 @@
     <t>93,85%</t>
   </si>
   <si>
-    <t>77,4%</t>
+    <t>81,14%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>83,61%</t>
+    <t>82,95%</t>
   </si>
   <si>
     <t>95,37%</t>
   </si>
   <si>
-    <t>87,24%</t>
+    <t>87,32%</t>
   </si>
   <si>
     <t>98,81%</t>
@@ -255,13 +261,13 @@
     <t>6,15%</t>
   </si>
   <si>
-    <t>22,6%</t>
+    <t>18,86%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>16,39%</t>
+    <t>17,05%</t>
   </si>
   <si>
     <t>4,63%</t>
@@ -270,55 +276,55 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>12,76%</t>
+    <t>12,68%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>41,91%</t>
+    <t>44,61%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>58,09%</t>
+    <t>55,39%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>69,59%</t>
@@ -342,55 +348,55 @@
     <t>92,65%</t>
   </si>
   <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
 </sst>
 </file>
@@ -802,7 +808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B495BA-0BCC-4F37-943E-6D3EC7C8923C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3E0294-F79A-4493-B7B6-45A1188EE143}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1394,10 +1400,10 @@
         <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -1406,10 +1412,10 @@
         <v>35854</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1421,13 +1427,13 @@
         <v>102253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1442,13 +1448,13 @@
         <v>4238</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1457,13 +1463,13 @@
         <v>2322</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1472,13 +1478,13 @@
         <v>6560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,7 +1540,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448D3C7E-A204-4600-BACA-E72638319F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D94EF6F-B2AB-48BC-98A6-1D90803B9CA8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1570,7 +1576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1677,10 +1683,10 @@
         <v>31952</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -1692,10 +1698,10 @@
         <v>31109</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1707,13 +1713,13 @@
         <v>63061</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,13 +1734,13 @@
         <v>2095</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1743,13 +1749,13 @@
         <v>965</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1758,13 +1764,13 @@
         <v>3060</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1838,13 @@
         <v>28056</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1847,10 +1853,10 @@
         <v>7972</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1862,13 +1868,13 @@
         <v>36029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1889,13 @@
         <v>2815</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1898,13 +1904,13 @@
         <v>1211</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1913,13 +1919,13 @@
         <v>4025</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,7 +2008,7 @@
         <v>2292</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -2017,10 +2023,10 @@
         <v>4148</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2053,7 +2059,7 @@
         <v>1002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -2068,13 +2074,13 @@
         <v>1002</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2148,13 @@
         <v>61865</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2157,13 +2163,13 @@
         <v>41373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -2172,13 +2178,13 @@
         <v>103237</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2199,13 @@
         <v>4910</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2208,13 +2214,13 @@
         <v>3178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2223,13 +2229,13 @@
         <v>8088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,7 +2291,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A11-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63DF4E0B-5F53-4F6F-98B5-DC392D63B043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C7CE91-BCC2-42FE-A84B-5C87F8A0ABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A0D497B-F15F-49E3-899F-8D82A989E2AE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{551D8063-7677-4EB2-8AB2-A1029EFA1F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="114">
   <si>
     <t>Población que recibe medicación o terapia por infarto de miocardio en 2012 (Tasa respuesta: 1,54%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>95,13%</t>
   </si>
   <si>
-    <t>84,55%</t>
+    <t>84,47%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -90,7 +90,7 @@
     <t>97,02%</t>
   </si>
   <si>
-    <t>91,07%</t>
+    <t>89,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -102,7 +102,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,45%</t>
+    <t>15,53%</t>
   </si>
   <si>
     <t>0%</t>
@@ -114,7 +114,7 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>8,93%</t>
+    <t>10,69%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -123,43 +123,43 @@
     <t>90,53%</t>
   </si>
   <si>
-    <t>70,81%</t>
+    <t>71,88%</t>
   </si>
   <si>
     <t>73,19%</t>
   </si>
   <si>
-    <t>35,38%</t>
+    <t>33,85%</t>
   </si>
   <si>
     <t>85,75%</t>
   </si>
   <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>9,47%</t>
   </si>
   <si>
-    <t>29,19%</t>
+    <t>28,12%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>64,62%</t>
+    <t>66,15%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -186,121 +186,118 @@
     <t>94,0%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>81,31%</t>
+    <t>79,29%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>18,69%</t>
+    <t>20,71%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por infarto de miocardio en 2015 (Tasa respuesta: 1,61%)</t>
+    <t>Población que recibe medicación o terapia por infarto de miocardio en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>93,85%</t>
   </si>
   <si>
-    <t>81,14%</t>
+    <t>80,58%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>82,95%</t>
+    <t>84,57%</t>
   </si>
   <si>
     <t>95,37%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>18,86%</t>
+    <t>19,42%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>17,05%</t>
+    <t>15,43%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>75,75%</t>
-  </si>
-  <si>
     <t>97,43%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>44,61%</t>
+    <t>46,04%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>9,12%</t>
@@ -309,22 +306,19 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>55,39%</t>
+    <t>53,96%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>69,59%</t>
@@ -333,7 +327,7 @@
     <t>80,55%</t>
   </si>
   <si>
-    <t>21,79%</t>
+    <t>21,21%</t>
   </si>
   <si>
     <t>30,41%</t>
@@ -342,61 +336,49 @@
     <t>19,45%</t>
   </si>
   <si>
-    <t>78,21%</t>
+    <t>78,79%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>81,08%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>96,81%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>18,92%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>3,19%</t>
   </si>
 </sst>
 </file>
@@ -808,7 +790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3E0294-F79A-4493-B7B6-45A1188EE143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EDED75-7E02-4516-8E83-5F866E15923F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1559,7 +1541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D94EF6F-B2AB-48BC-98A6-1D90803B9CA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B33F19-5E2A-4237-8782-3D35F97DFC84}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1841,10 +1823,10 @@
         <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1853,10 +1835,10 @@
         <v>7972</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1868,13 +1850,13 @@
         <v>36029</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,13 +1871,13 @@
         <v>2815</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1904,13 +1886,13 @@
         <v>1211</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1919,13 +1901,13 @@
         <v>4025</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,7 +1990,7 @@
         <v>2292</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -2023,10 +2005,10 @@
         <v>4148</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2059,7 +2041,7 @@
         <v>1002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -2074,13 +2056,13 @@
         <v>1002</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,13 +2130,13 @@
         <v>61865</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2163,13 +2145,13 @@
         <v>41373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -2178,13 +2160,13 @@
         <v>103237</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,13 +2181,13 @@
         <v>4910</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2214,13 +2196,13 @@
         <v>3178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2229,13 +2211,13 @@
         <v>8088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
